--- a/GBDS FEBRUARY FILES 2026/PRICE LIST January.xlsx
+++ b/GBDS FEBRUARY FILES 2026/PRICE LIST January.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1238A0-3E23-485B-840D-AE0E060DCB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B0C8E-DF8C-4EC5-9F74-6DD939A8A381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>PRODUCTS</t>
   </si>
@@ -897,7 +897,417 @@
   </si>
   <si>
     <r>
-      <t>RED HORSE 500 CAN (</t>
+      <t>SAN MIG FREE 330ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SMF/SMFB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SAN MIG FREE CAN 330ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SMFC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GOLD EAGLE 320ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GE320</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GOLD EAGLE 1000ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GEK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PREMIUM ALL MALT 330ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PAMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KIRIN 330ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KRB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HARD SELTZER CM CAN 330ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CERVEZA BLANCA 330ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CBB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHOCOLATE LAGER CAN 330ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <r>
+      <t>RED HORSE SUPER 1000ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RHSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SAN MIG LIGHT 1000ml (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SMLO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>as of January 01, 2026</t>
+  </si>
+  <si>
+    <r>
+      <t>SAN MIG LIGHT 500ml CAN (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SML500C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PALE PILSEN 500ml CAN (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PP500C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RED HORSE 500ml CAN (</t>
     </r>
     <r>
       <rPr>
@@ -922,309 +1332,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>SAN MIG FREE 330ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SMF/SMFB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SAN MIG FREE CAN 330ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SMFC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GOLD EAGLE 320ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GE320</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GOLD EAGLE 1000ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GEK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PREMIUM ALL MALT 330ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PAMB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>KIRIN 330ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KRB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HARD SELTZER CM CAN 330ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CERVEZA BLANCA 330ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CBB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CHOCOLATE LAGER CAN 330ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CLC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>21.</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
     <t>24.</t>
   </si>
   <si>
@@ -1288,59 +1395,39 @@
     <t>44.</t>
   </si>
   <si>
-    <r>
-      <t>RED HORSE SUPER 1000ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RHSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SAN MIG LIGHT 1000ml (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SMLO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>as of January 01, 2026</t>
+    <t>45.</t>
+  </si>
+  <si>
+    <t>46.</t>
+  </si>
+  <si>
+    <t>47.</t>
+  </si>
+  <si>
+    <r>
+      <t>MANGO YUZU 330ml CAN (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MGYZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1350,7 +1437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1398,6 +1485,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1975,13 +2068,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2129,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2125,7 +2218,7 @@
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>16</v>
@@ -2160,7 +2253,7 @@
     </row>
     <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>17</v>
@@ -2195,7 +2288,7 @@
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>18</v>
@@ -2223,7 +2316,7 @@
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>19</v>
@@ -2251,7 +2344,7 @@
     </row>
     <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>20</v>
@@ -2294,7 +2387,7 @@
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>21</v>
@@ -2329,7 +2422,7 @@
     </row>
     <row r="18" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>22</v>
@@ -2364,7 +2457,7 @@
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>23</v>
@@ -2399,7 +2492,7 @@
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>2</v>
@@ -2434,7 +2527,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>9</v>
@@ -2497,10 +2590,10 @@
     </row>
     <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="17">
         <v>1582</v>
@@ -2532,7 +2625,7 @@
     </row>
     <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>24</v>
@@ -2558,10 +2651,10 @@
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="14">
         <v>1728</v>
@@ -2587,7 +2680,7 @@
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>25</v>
@@ -2613,7 +2706,7 @@
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>26</v>
@@ -2639,10 +2732,10 @@
     </row>
     <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="23">
         <v>1582</v>
@@ -2675,7 +2768,7 @@
     </row>
     <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>27</v>
@@ -2704,13 +2797,13 @@
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="9">
-        <f t="shared" ref="K30:K57" si="9">C30/2</f>
+        <f t="shared" ref="K30:K61" si="9">C30/2</f>
         <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>28</v>
@@ -2736,7 +2829,7 @@
     </row>
     <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>29</v>
@@ -2771,10 +2864,10 @@
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="14">
         <v>1582</v>
@@ -2793,15 +2886,12 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="6">
-        <f t="shared" si="9"/>
-        <v>791</v>
-      </c>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="12" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C34" s="23">
         <v>710</v>
@@ -2833,7 +2923,7 @@
     </row>
     <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>30</v>
@@ -2868,7 +2958,7 @@
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>31</v>
@@ -2903,7 +2993,7 @@
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>32</v>
@@ -2931,80 +3021,66 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1667</v>
+      </c>
+      <c r="D38" s="13">
+        <v>24</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C39" s="14">
         <v>872</v>
       </c>
-      <c r="D38" s="13">
-        <v>24</v>
-      </c>
-      <c r="E38" s="14">
-        <f>C38/D38</f>
+      <c r="D39" s="13">
+        <v>24</v>
+      </c>
+      <c r="E39" s="14">
+        <f>C39/D39</f>
         <v>36.333333333333336</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>43</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>120</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <v>84</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I39" s="6">
         <v>1.5</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="6">
+      <c r="J39" s="7"/>
+      <c r="K39" s="6">
         <f t="shared" si="9"/>
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="14">
-        <v>872</v>
-      </c>
-      <c r="D39" s="13">
-        <v>24</v>
-      </c>
-      <c r="E39" s="14">
-        <f t="shared" ref="E39:E40" si="13">C39/D39</f>
-        <v>36.333333333333336</v>
-      </c>
-      <c r="F39" s="14">
-        <v>43</v>
-      </c>
-      <c r="G39" s="14">
-        <v>120</v>
-      </c>
-      <c r="H39" s="6">
-        <v>84</v>
-      </c>
-      <c r="I39" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="6">
-        <f t="shared" ref="K39:K40" si="14">C39/2</f>
-        <v>436</v>
-      </c>
-    </row>
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="14">
         <v>872</v>
@@ -3013,61 +3089,68 @@
         <v>24</v>
       </c>
       <c r="E40" s="14">
+        <f t="shared" ref="E40:E41" si="13">C40/D40</f>
+        <v>36.333333333333336</v>
+      </c>
+      <c r="F40" s="14">
+        <v>43</v>
+      </c>
+      <c r="G40" s="14">
+        <v>120</v>
+      </c>
+      <c r="H40" s="6">
+        <v>84</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="6">
+        <f t="shared" ref="K40:K41" si="14">C40/2</f>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="14">
+        <v>872</v>
+      </c>
+      <c r="D41" s="13">
+        <v>24</v>
+      </c>
+      <c r="E41" s="14">
         <f t="shared" si="13"/>
         <v>36.333333333333336</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>43</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>120</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H41" s="6">
         <v>84</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I41" s="6">
         <v>1.5</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="6">
+      <c r="J41" s="7"/>
+      <c r="K41" s="6">
         <f t="shared" si="14"/>
         <v>436</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1102</v>
-      </c>
-      <c r="D41" s="13">
-        <v>24</v>
-      </c>
-      <c r="E41" s="14">
-        <f t="shared" ref="E41:E42" si="15">C41/D41</f>
-        <v>45.916666666666664</v>
-      </c>
-      <c r="F41" s="14">
-        <v>53</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="6"/>
-    </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="14">
         <v>1102</v>
@@ -3076,7 +3159,7 @@
         <v>24</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E42:E43" si="15">C42/D42</f>
         <v>45.916666666666664</v>
       </c>
       <c r="F42" s="14">
@@ -3090,436 +3173,424 @@
       <c r="J42" s="7"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1102</v>
+      </c>
+      <c r="D43" s="13">
+        <v>24</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="15"/>
+        <v>45.916666666666664</v>
+      </c>
+      <c r="F43" s="14">
+        <v>53</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C44" s="17">
         <v>1102</v>
       </c>
-      <c r="D43" s="18">
-        <v>24</v>
-      </c>
-      <c r="E43" s="17">
-        <f>C43/D43</f>
+      <c r="D44" s="18">
+        <v>24</v>
+      </c>
+      <c r="E44" s="17">
+        <f>C44/D44</f>
         <v>45.916666666666664</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>53</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="34" t="s">
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C45" s="14">
         <v>912</v>
       </c>
-      <c r="D44" s="13">
-        <v>24</v>
-      </c>
-      <c r="E44" s="14">
-        <f t="shared" ref="E44:E53" si="16">C44/D44</f>
+      <c r="D45" s="13">
+        <v>24</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" ref="E45:E55" si="16">C45/D45</f>
         <v>38</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>48</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>120</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H45" s="6">
         <v>84</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I45" s="6">
         <v>1.5</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="6">
+      <c r="J45" s="10"/>
+      <c r="K45" s="6">
         <f t="shared" si="9"/>
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="34" t="s">
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C46" s="14">
         <v>1122</v>
       </c>
-      <c r="D45" s="13">
-        <v>24</v>
-      </c>
-      <c r="E45" s="14">
+      <c r="D46" s="13">
+        <v>24</v>
+      </c>
+      <c r="E46" s="14">
         <f t="shared" si="16"/>
         <v>46.75</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>55</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>120</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H46" s="6">
         <v>84</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I46" s="6">
         <v>1.5</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="6">
+      <c r="J46" s="7"/>
+      <c r="K46" s="6">
         <f t="shared" si="9"/>
         <v>561</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="35" t="s">
+    <row r="47" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C47" s="17">
         <v>622</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D47" s="18">
         <v>6</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <f t="shared" si="16"/>
         <v>103.66666666666667</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>120</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="17">
         <v>111</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="9">
         <v>84</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="9">
         <v>4.5</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="9">
+      <c r="J47" s="8"/>
+      <c r="K47" s="9">
         <f t="shared" si="9"/>
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="12" t="s">
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C48" s="14">
         <v>1175</v>
       </c>
-      <c r="D47" s="13">
-        <v>24</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="D48" s="13">
+        <v>24</v>
+      </c>
+      <c r="E48" s="14">
         <f t="shared" si="16"/>
         <v>48.958333333333336</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="14">
         <v>55</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="16" t="s">
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="14">
+        <v>1667</v>
+      </c>
+      <c r="D49" s="13">
+        <v>24</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C50" s="17">
         <v>973</v>
       </c>
-      <c r="D48" s="18">
-        <v>24</v>
-      </c>
-      <c r="E48" s="17">
+      <c r="D50" s="18">
+        <v>24</v>
+      </c>
+      <c r="E50" s="17">
         <f t="shared" si="16"/>
         <v>40.541666666666664</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F50" s="17">
         <v>48</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G50" s="17">
         <v>120</v>
-      </c>
-      <c r="H48" s="9">
-        <v>84</v>
-      </c>
-      <c r="I48" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="9">
-        <f t="shared" si="9"/>
-        <v>486.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="30">
-        <v>670</v>
-      </c>
-      <c r="D49" s="31">
-        <v>12</v>
-      </c>
-      <c r="E49" s="30">
-        <f t="shared" si="16"/>
-        <v>55.833333333333336</v>
-      </c>
-      <c r="F49" s="30">
-        <v>65</v>
-      </c>
-      <c r="G49" s="30">
-        <v>111</v>
-      </c>
-      <c r="H49" s="32">
-        <v>84</v>
-      </c>
-      <c r="I49" s="32">
-        <v>2.25</v>
-      </c>
-      <c r="J49" s="33"/>
-      <c r="K49" s="32">
-        <f t="shared" si="9"/>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="17">
-        <v>650</v>
-      </c>
-      <c r="D50" s="18">
-        <v>6</v>
-      </c>
-      <c r="E50" s="17">
-        <f t="shared" si="16"/>
-        <v>108.33333333333333</v>
-      </c>
-      <c r="F50" s="17">
-        <v>125</v>
-      </c>
-      <c r="G50" s="17">
-        <v>111</v>
       </c>
       <c r="H50" s="9">
         <v>84</v>
       </c>
       <c r="I50" s="9">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="9">
         <f t="shared" si="9"/>
+        <v>486.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="30">
+        <v>670</v>
+      </c>
+      <c r="D51" s="31">
+        <v>12</v>
+      </c>
+      <c r="E51" s="30">
+        <f t="shared" si="16"/>
+        <v>55.833333333333336</v>
+      </c>
+      <c r="F51" s="30">
+        <v>65</v>
+      </c>
+      <c r="G51" s="30">
+        <v>111</v>
+      </c>
+      <c r="H51" s="32">
+        <v>84</v>
+      </c>
+      <c r="I51" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="J51" s="33"/>
+      <c r="K51" s="32">
+        <f t="shared" si="9"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="17">
+        <v>650</v>
+      </c>
+      <c r="D52" s="18">
+        <v>6</v>
+      </c>
+      <c r="E52" s="17">
+        <f t="shared" si="16"/>
+        <v>108.33333333333333</v>
+      </c>
+      <c r="F52" s="17">
+        <v>125</v>
+      </c>
+      <c r="G52" s="17">
+        <v>111</v>
+      </c>
+      <c r="H52" s="9">
+        <v>84</v>
+      </c>
+      <c r="I52" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9">
+        <f t="shared" si="9"/>
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="12" t="s">
+    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C53" s="14">
         <v>1175</v>
       </c>
-      <c r="D51" s="13">
-        <v>24</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="D53" s="13">
+        <v>24</v>
+      </c>
+      <c r="E53" s="14">
         <f t="shared" si="16"/>
         <v>48.958333333333336</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F53" s="14">
         <v>55</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G53" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="14">
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="14">
         <v>1667</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="17">
+      <c r="D54" s="13">
+        <v>24</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="17">
         <v>700</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D55" s="18">
         <v>6</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E55" s="17">
         <f t="shared" si="16"/>
         <v>116.66666666666667</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F55" s="17">
         <v>135</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G55" s="17">
         <v>111</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H55" s="9">
         <v>84</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I55" s="9">
         <v>4.5</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="9">
-        <f t="shared" ref="K53" si="17">C53/2</f>
+      <c r="J55" s="8"/>
+      <c r="K55" s="9">
+        <f t="shared" ref="K55" si="17">C55/2</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="14">
-        <v>1049</v>
-      </c>
-      <c r="D54" s="13">
-        <v>24</v>
-      </c>
-      <c r="E54" s="14">
-        <f t="shared" ref="E54:E55" si="18">C54/D54</f>
-        <v>43.708333333333336</v>
-      </c>
-      <c r="F54" s="14">
-        <v>53</v>
-      </c>
-      <c r="G54" s="14">
-        <v>120</v>
-      </c>
-      <c r="H54" s="6">
-        <v>84</v>
-      </c>
-      <c r="I54" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="6">
-        <f t="shared" si="9"/>
-        <v>524.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="14">
-        <v>1102</v>
-      </c>
-      <c r="D55" s="13">
-        <v>24</v>
-      </c>
-      <c r="E55" s="14">
-        <f t="shared" si="18"/>
-        <v>45.916666666666664</v>
-      </c>
-      <c r="F55" s="14">
-        <v>53</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C56" s="14">
-        <v>723</v>
+        <v>1049</v>
       </c>
       <c r="D56" s="13">
         <v>24</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" ref="E56:E57" si="19">C56/D56</f>
-        <v>30.125</v>
+        <f t="shared" ref="E56:E57" si="18">C56/D56</f>
+        <v>43.708333333333336</v>
       </c>
       <c r="F56" s="14">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G56" s="14">
         <v>120</v>
@@ -3533,78 +3604,155 @@
       <c r="J56" s="7"/>
       <c r="K56" s="6">
         <f t="shared" si="9"/>
-        <v>361.5</v>
+        <v>524.5</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C57" s="14">
+        <v>1102</v>
+      </c>
+      <c r="D57" s="13">
+        <v>24</v>
+      </c>
+      <c r="E57" s="14">
+        <f t="shared" si="18"/>
+        <v>45.916666666666664</v>
+      </c>
+      <c r="F57" s="14">
+        <v>53</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="14">
+        <v>723</v>
+      </c>
+      <c r="D58" s="13">
+        <v>24</v>
+      </c>
+      <c r="E58" s="14">
+        <f t="shared" ref="E58:E59" si="19">C58/D58</f>
+        <v>30.125</v>
+      </c>
+      <c r="F58" s="14">
+        <v>36</v>
+      </c>
+      <c r="G58" s="14">
+        <v>120</v>
+      </c>
+      <c r="H58" s="6">
+        <v>84</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="6">
+        <f t="shared" si="9"/>
+        <v>361.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="14">
         <v>559</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D59" s="13">
         <v>6</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E59" s="14">
         <f t="shared" si="19"/>
         <v>93.166666666666671</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F59" s="14">
         <v>105</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G59" s="14">
         <v>111</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H59" s="6">
         <v>84</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I59" s="6">
         <v>4.5</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="6">
+      <c r="J59" s="7"/>
+      <c r="K59" s="6">
         <f t="shared" si="9"/>
         <v>279.5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="14">
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="14">
         <v>1204</v>
       </c>
-      <c r="D58" s="13">
-        <v>24</v>
-      </c>
-      <c r="E58" s="14">
-        <f t="shared" ref="E58" si="20">C58/D58</f>
+      <c r="D60" s="13">
+        <v>24</v>
+      </c>
+      <c r="E60" s="14">
+        <f t="shared" ref="E60:E61" si="20">C60/D60</f>
         <v>50.166666666666664</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F60" s="14">
         <v>58</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1582</v>
+      </c>
+      <c r="D61" s="13">
+        <v>24</v>
+      </c>
+      <c r="E61" s="12">
+        <f t="shared" si="20"/>
+        <v>65.916666666666671</v>
+      </c>
+      <c r="F61" s="14">
+        <v>76</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="K61" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3616,6 +3764,7 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
